--- a/consuntivo_requisiti.xlsx
+++ b/consuntivo_requisiti.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
   <si>
     <t>Necessari</t>
   </si>
@@ -84,6 +84,220 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Requisiti</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Iniziali</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$C$9:$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Necessari</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Desiderabili</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Opzionali</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$10:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soddisfatti</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$C$9:$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Necessari</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Desiderabili</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Opzionali</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$11:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="50565504"/>
+        <c:axId val="50567040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50565504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50567040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50567040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50565504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Requisiti"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:J5"/>
+  <dimension ref="B2:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="B9" sqref="B9:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -483,8 +697,74 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="2:10">
+      <c r="C6">
+        <f>C3+C4+C5</f>
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:E6" si="0">D3+D4+D5</f>
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <f>H3+H4+H5</f>
+        <v>29</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:J6" si="1">I3+I4+I5</f>
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
